--- a/ja/releases/nablarch5u21-releasenote.xlsx
+++ b/ja/releases/nablarch5u21-releasenote.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340CD14F-4F52-4127-853A-3CB8AC217B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE58334-92E9-4FE2-B0AF-B07D14276454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="678" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,13 +733,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>メッセージのロードに使用されるPropertiesStringResourceLoaderのコンポーネント定義ファイルmessage-by-property-files.xmを追加しました。
-PropertiesStringResourceLoaderはコンポーネント定義ファイルで明示的な設定がない場合にデフォルトで利用されるクラスです。
-コンポーネント定義ファイルに明示的な設定がない状態でアプリケーションを動作させると、このクラスのデフォルトのロケールには、OSのデフォルトロケールが採用されるため、実行する環境に応じて値が変わり障害の原因になる可能性があります。
-今回追加したmessage-by-property-files.xmlをimportすることでこの問題を回避することができます。</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>nablarch-main-default-configuration 1.4.0</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -2201,6 +2195,13 @@
   </si>
   <si>
     <t>https://github.com/nablarch-development-standards/nablarch-style-guide/blob/3.1/java/staticanalysis/spotbugs/docs/Maven-settings.md#spotbugs-maven-plugin%E3%82%92%E7%B5%84%E3%81%BF%E8%BE%BC%E3%82%80</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>メッセージのロードに使用されるPropertiesStringResourceLoaderのコンポーネント定義ファイルmessage-by-property-files.xmlを追加しました。
+PropertiesStringResourceLoaderはコンポーネント定義ファイルで明示的な設定がない場合にデフォルトで利用されるクラスです。
+コンポーネント定義ファイルに明示的な設定がない状態でアプリケーションを動作させると、このクラスのデフォルトのロケールには、OSのデフォルトロケールが採用されるため、実行する環境に応じて値が変わり障害の原因になる可能性があります。
+今回追加したmessage-by-property-files.xmlをimportすることでこの問題を回避することができます。</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -2884,62 +2885,62 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="37" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="38">
@@ -3523,10 +3524,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4278,64 +4275,64 @@
       <c r="DL3" s="9"/>
     </row>
     <row r="4" spans="1:116" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="59" t="s">
+      <c r="J4" s="74"/>
+      <c r="K4" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="69" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:116" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
       <c r="I5" s="44" t="s">
         <v>82</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="60"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="70"/>
     </row>
     <row r="6" spans="1:116" ht="21">
       <c r="A6" s="37" t="s">
@@ -4390,7 +4387,7 @@
       <c r="L7" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="57" t="s">
         <v>93</v>
       </c>
       <c r="N7" s="22" t="s">
@@ -4431,7 +4428,7 @@
       <c r="L8" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="M8" s="68" t="s">
+      <c r="M8" s="57" t="s">
         <v>102</v>
       </c>
       <c r="N8" s="22" t="s">
@@ -4442,7 +4439,7 @@
       <c r="A9" s="12"/>
       <c r="B9" s="33"/>
       <c r="C9" s="22">
-        <f t="shared" ref="C9:C19" si="0">C8+1</f>
+        <f t="shared" ref="C9:C21" si="0">C8+1</f>
         <v>3</v>
       </c>
       <c r="D9" s="22" t="s">
@@ -4472,7 +4469,7 @@
       <c r="L9" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="68" t="s">
+      <c r="M9" s="57" t="s">
         <v>108</v>
       </c>
       <c r="N9" s="22" t="s">
@@ -4496,10 +4493,10 @@
         <v>111</v>
       </c>
       <c r="G10" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>113</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>91</v>
@@ -4513,11 +4510,11 @@
       <c r="L10" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="68" t="s">
+      <c r="M10" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="22" t="s">
         <v>114</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:116" s="10" customFormat="1" ht="252">
@@ -4534,31 +4531,31 @@
         <v>96</v>
       </c>
       <c r="F11" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="H11" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="I11" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="22" t="s">
+      <c r="L11" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="M11" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="N11" s="22" t="s">
         <v>121</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:116" s="10" customFormat="1" ht="144">
@@ -4569,16 +4566,16 @@
         <v>6</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F12" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>124</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>125</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>107</v>
@@ -4595,11 +4592,11 @@
       <c r="L12" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="68" t="s">
+      <c r="M12" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="22" t="s">
         <v>126</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:116" s="10" customFormat="1" ht="108">
@@ -4616,10 +4613,10 @@
         <v>96</v>
       </c>
       <c r="F13" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>107</v>
@@ -4636,33 +4633,33 @@
       <c r="L13" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="68" t="s">
+      <c r="M13" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="N13" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:116" s="10" customFormat="1" ht="60">
       <c r="A14" s="12"/>
       <c r="B14" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>87</v>
       </c>
       <c r="F14" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>134</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>135</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>91</v>
@@ -4679,11 +4676,11 @@
       <c r="L14" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="68" t="s">
+      <c r="M14" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="N14" s="22" t="s">
         <v>136</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:116" s="10" customFormat="1" ht="96">
@@ -4694,16 +4691,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F15" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>138</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>139</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>91</v>
@@ -4720,11 +4717,11 @@
       <c r="L15" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M15" s="68" t="s">
+      <c r="M15" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" s="22" t="s">
         <v>140</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:116" s="10" customFormat="1" ht="48">
@@ -4735,13 +4732,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="22" t="str">
         <f>"No."&amp;C15&amp;"と同じように、OracleのJDBCドライバにセントラルリポジトリのJDBCドライバを使うようにdependencyの記述を修正しました。"</f>
@@ -4762,30 +4759,30 @@
       <c r="L16" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M16" s="68" t="s">
-        <v>144</v>
+      <c r="M16" s="57" t="s">
+        <v>143</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="10" customFormat="1" ht="84">
       <c r="A17" s="12"/>
       <c r="B17" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="22" t="str">
         <f>"Java 17 でもビルド・実行できるように、使用しているライブラリやMavenプラグインのバージョンを更新しました。
@@ -4794,7 +4791,7 @@
 なお、Java 17で動かす際にはNo.8の手順を実施する必要があります。</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>91</v>
@@ -4808,11 +4805,11 @@
       <c r="L17" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="68" t="s">
-        <v>148</v>
+      <c r="M17" s="57" t="s">
+        <v>147</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="10" customFormat="1" ht="84">
@@ -4823,16 +4820,16 @@
         <v>12</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F18" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>151</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>91</v>
@@ -4849,11 +4846,11 @@
       <c r="L18" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="68" t="s">
-        <v>152</v>
+      <c r="M18" s="57" t="s">
+        <v>151</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="10" customFormat="1" ht="48">
@@ -4864,19 +4861,19 @@
         <v>13</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F19" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="H19" s="22" t="s">
         <v>155</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>156</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>91</v>
@@ -4890,34 +4887,34 @@
       <c r="L19" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="68" t="s">
+      <c r="M19" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="N19" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="10" customFormat="1" ht="88.5" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="38"/>
       <c r="C20" s="22">
-        <f>C18+1</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F20" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>160</v>
-      </c>
       <c r="H20" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>91</v>
@@ -4931,25 +4928,25 @@
       <c r="L20" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="68" t="s">
+      <c r="M20" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="N20" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="10" customFormat="1" ht="90" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="38"/>
       <c r="C21" s="22">
-        <f>C19+1</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="D21" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>163</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>164</v>
       </c>
       <c r="F21" s="22" t="s">
         <v>111</v>
@@ -4959,7 +4956,7 @@
         <v>ブランクプロジェクトでメッセージをロードする際に設定されるデフォルト言語がOS環境によって変動しないようにNo4で追加した、message-by-property-files.xmlをimportするように変更しました。</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>91</v>
@@ -4973,16 +4970,16 @@
       <c r="L21" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="68" t="s">
-        <v>165</v>
+      <c r="M21" s="57" t="s">
+        <v>164</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="10" customFormat="1" ht="21">
       <c r="A22" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="11"/>
@@ -5005,16 +5002,16 @@
       </c>
       <c r="C23" s="22">
         <f>C21+1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G23" s="22" t="str">
         <f>"Java 17 でもビルド・実行できるように、使用しているMavenプラグインのバージョンを更新しました。
@@ -5023,7 +5020,7 @@
 なお、Java 17で動かす際にはNo.8の手順を実施する必要があります。</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>91</v>
@@ -5037,11 +5034,11 @@
       <c r="L23" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M23" s="68" t="s">
-        <v>169</v>
+      <c r="M23" s="57" t="s">
+        <v>168</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="10" customFormat="1" ht="48">
@@ -5049,23 +5046,23 @@
       <c r="B24" s="33"/>
       <c r="C24" s="22">
         <f>C23+1</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G24" s="22" t="str">
         <f>"内容はNo."&amp;C23&amp;"と同じです。"</f>
-        <v>内容はNo.15と同じです。</v>
+        <v>内容はNo.16と同じです。</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>91</v>
@@ -5079,11 +5076,11 @@
       <c r="L24" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M24" s="68" t="s">
-        <v>172</v>
+      <c r="M24" s="57" t="s">
+        <v>171</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="10" customFormat="1" ht="36">
@@ -5091,23 +5088,23 @@
       <c r="B25" s="33"/>
       <c r="C25" s="22">
         <f>C24+1</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G25" s="22" t="str">
         <f>"内容はNo."&amp;C23&amp;"と同じです。"</f>
-        <v>内容はNo.15と同じです。</v>
+        <v>内容はNo.16と同じです。</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>91</v>
@@ -5121,11 +5118,11 @@
       <c r="L25" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M25" s="68" t="s">
-        <v>175</v>
+      <c r="M25" s="57" t="s">
+        <v>174</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="10" customFormat="1" ht="228">
@@ -5133,22 +5130,22 @@
       <c r="B26" s="46"/>
       <c r="C26" s="22">
         <f>C25+1</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G26" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>178</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>91</v>
@@ -5162,30 +5159,30 @@
       <c r="L26" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M26" s="68" t="s">
+      <c r="M26" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="N26" s="22" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="10" customFormat="1" ht="21">
       <c r="A27" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="28"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="72"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="61"/>
     </row>
     <row r="28" spans="1:14" s="10" customFormat="1" ht="48">
       <c r="A28" s="12"/>
@@ -5194,16 +5191,16 @@
       </c>
       <c r="C28" s="22">
         <f>C26+1</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G28" s="22" t="str">
         <f>"Java 17 でもビルド・実行できるように、使用しているMavenプラグインとライブラリのバージョンを更新しました。
@@ -5212,7 +5209,7 @@
 なお、Java 17で動かす際にはNo.8の手順を実施する必要があります。</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>91</v>
@@ -5226,30 +5223,30 @@
       <c r="L28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="68" t="s">
-        <v>182</v>
+      <c r="M28" s="57" t="s">
+        <v>181</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="10" customFormat="1" ht="21">
       <c r="A29" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="32"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="72"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="61"/>
     </row>
     <row r="30" spans="1:14" s="10" customFormat="1" ht="246.75" customHeight="1">
       <c r="A30" s="12"/>
@@ -5258,40 +5255,40 @@
       </c>
       <c r="C30" s="22">
         <f>C28+1</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E30" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F30" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="H30" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="I30" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="I30" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K30" s="22" t="s">
+      <c r="L30" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="L30" s="22" t="s">
+      <c r="M30" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="M30" s="68" t="s">
+      <c r="N30" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="10" customFormat="1" ht="91.5" customHeight="1">
@@ -5299,22 +5296,22 @@
       <c r="B31" s="45"/>
       <c r="C31" s="22">
         <f t="shared" ref="C31:C35" si="1">C30+1</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>87</v>
       </c>
       <c r="F31" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="H31" s="22" t="s">
         <v>193</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>194</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>91</v>
@@ -5328,11 +5325,11 @@
       <c r="L31" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M31" s="68" t="s">
-        <v>190</v>
+      <c r="M31" s="57" t="s">
+        <v>189</v>
       </c>
       <c r="N31" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="10" customFormat="1" ht="72">
@@ -5340,22 +5337,22 @@
       <c r="B32" s="45"/>
       <c r="C32" s="22">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F32" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="H32" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="I32" s="22" t="s">
         <v>91</v>
@@ -5369,11 +5366,11 @@
       <c r="L32" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M32" s="68" t="s">
-        <v>200</v>
+      <c r="M32" s="57" t="s">
+        <v>199</v>
       </c>
       <c r="N32" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="10" customFormat="1" ht="152.25" customHeight="1">
@@ -5381,22 +5378,22 @@
       <c r="B33" s="45"/>
       <c r="C33" s="22">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>87</v>
       </c>
       <c r="F33" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="H33" s="22" t="s">
         <v>203</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>204</v>
       </c>
       <c r="I33" s="22" t="s">
         <v>91</v>
@@ -5410,11 +5407,11 @@
       <c r="L33" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M33" s="68" t="s">
+      <c r="M33" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="N33" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="N33" s="22" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="10" customFormat="1" ht="114.75" customHeight="1">
@@ -5422,22 +5419,22 @@
       <c r="B34" s="45"/>
       <c r="C34" s="22">
         <f>C33+1</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F34" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="H34" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>207</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>91</v>
@@ -5451,34 +5448,34 @@
       <c r="L34" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="68" t="s">
+      <c r="M34" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="N34" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="N34" s="22" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="35" spans="1:14" s="10" customFormat="1" ht="114.75" customHeight="1">
-      <c r="A35" s="74"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="54"/>
       <c r="C35" s="22">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>96</v>
       </c>
       <c r="F35" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>211</v>
-      </c>
       <c r="H35" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I35" s="22" t="s">
         <v>91</v>
@@ -5492,33 +5489,33 @@
       <c r="L35" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M35" s="68" t="s">
+      <c r="M35" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="N35" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="N35" s="22" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="36" spans="1:14" s="10" customFormat="1" ht="72">
-      <c r="A36" s="75"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36" s="22">
         <f>C35+1</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E36" s="23" t="s">
         <v>87</v>
       </c>
       <c r="F36" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G36" s="22" t="s">
         <v>214</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>215</v>
       </c>
       <c r="H36" s="22" t="s">
         <v>91</v>
@@ -5535,11 +5532,11 @@
       <c r="L36" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M36" s="68" t="s">
-        <v>216</v>
+      <c r="M36" s="57" t="s">
+        <v>215</v>
       </c>
       <c r="N36" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -5596,11 +5593,6 @@
     <sortCondition ref="E7:E13"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="G4:G5"/>
@@ -5608,6 +5600,11 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <conditionalFormatting sqref="G22">
@@ -5685,7 +5682,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5697,7 +5694,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -5708,10 +5705,10 @@
     <row r="4" spans="1:6">
       <c r="A4" s="16"/>
       <c r="B4" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -5723,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -5736,7 +5733,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -5794,256 +5791,256 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="49" t="s">
         <v>224</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="C4" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="C7" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="53" t="s">
         <v>229</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="C8" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="C9" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="C10" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="C11" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="53" t="s">
         <v>235</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="C17" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="C18" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="C19" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="C20" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="C21" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="C22" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="C23" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="C24" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="C25" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="C26" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="53" t="s">
         <v>250</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="C27" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="C28" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="C29" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="C30" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="C31" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="13.5">
+      <c r="B33" s="75" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" ht="13.5">
-      <c r="B33" s="67" t="s">
-        <v>258</v>
-      </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6058,18 +6055,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6264,26 +6261,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F997B6E2-66E3-4F87-A84B-8F04CFCA4B7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A919464-BD08-4966-B05C-B6FFCD5F73ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A919464-BD08-4966-B05C-B6FFCD5F73ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F997B6E2-66E3-4F87-A84B-8F04CFCA4B7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
+    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ja/releases/nablarch5u21-releasenote.xlsx
+++ b/ja/releases/nablarch5u21-releasenote.xlsx
@@ -1,57 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE58334-92E9-4FE2-B0AF-B07D14276454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7A8DEB-B8F9-48A9-8E51-52E63AFD2DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="678" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="分類" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="5u21" sheetId="2" r:id="rId2"/>
-    <sheet name="バージョンアップ手順" sheetId="7" r:id="rId3"/>
-    <sheet name="使用不許可APIチェックツールの設定方法" sheetId="9" r:id="rId4"/>
+    <sheet name="5u21" sheetId="2" r:id="rId1"/>
+    <sheet name="バージョンアップ手順" sheetId="7" r:id="rId2"/>
+    <sheet name="使用不許可APIチェックツールの設定方法" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5u21'!$A$5:$N$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'5u21'!$A$1:$N$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">バージョンアップ手順!$A$1:$C$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'5u21'!$4:$5</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$A$6:$N$26</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintArea" localSheetId="1" hidden="1">'5u21'!$A$1:$N$26</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u21'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.Cols" localSheetId="1" hidden="1">'5u21'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintArea" localSheetId="1" hidden="1">'5u21'!$A$1:$M$26</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u21'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Cols" localSheetId="1" hidden="1">'5u21'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.PrintArea" localSheetId="1" hidden="1">'5u21'!$C$6:$M$26</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Rows" localSheetId="1" hidden="1">'5u21'!#REF!</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$A$6:$N$26</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintArea" localSheetId="1" hidden="1">'5u21'!$A$1:$N$26</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u21'!#REF!</definedName>
-    <definedName name="Z_40B3BD4E_A90D_4626_81B6_C0483900AF4D_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$E$1:$E$26</definedName>
-    <definedName name="Z_4655032F_EDA3_424D_B394_37A8E68C4904_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$A$6:$N$26</definedName>
-    <definedName name="Z_4D2933E2_6487_444C_A6EE_CA2B07EBFF56_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$E$1:$E$26</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$A$6:$N$26</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintArea" localSheetId="1" hidden="1">'5u21'!$A$1:$N$26</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u21'!#REF!</definedName>
-    <definedName name="Z_70553CE3_733A_4433_9EF9_07365707E65C_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$A$6:$N$26</definedName>
-    <definedName name="Z_75534C82_75DB_44B7_B1F4_76A899C57CD8_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$A$6:$N$26</definedName>
-    <definedName name="Z_88EDDA8D_68B8_4E64_A52A_39C4E90703A2_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$E$1:$E$26</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$E$1:$E$26</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintArea" localSheetId="1" hidden="1">'5u21'!$A$1:$N$26</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u21'!#REF!</definedName>
-    <definedName name="Z_9A22F025_86BB_4FF2_93A1_C23747445003_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$A$6:$N$26</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Cols" localSheetId="1" hidden="1">'5u21'!#REF!</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.PrintArea" localSheetId="1" hidden="1">'5u21'!$C$6:$M$26</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Rows" localSheetId="1" hidden="1">'5u21'!#REF!</definedName>
-    <definedName name="Z_B98E9A70_C592_47CF_A3E9_FBB4A91609B9_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$A$6:$N$26</definedName>
-    <definedName name="Z_CB63417C_4A99_4348_B0FA_FE9F3E662D2A_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$A$6:$N$26</definedName>
-    <definedName name="Z_EA675E32_024D_4164_ACA4_4EB3E1B601BC_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$A$6:$N$26</definedName>
-    <definedName name="Z_EF0F843B_318F_4282_AA07_302A6B0BD46D_.wvu.FilterData" localSheetId="1" hidden="1">'5u21'!$A$6:$N$26</definedName>
-    <definedName name="機能分類">分類!$B$4:$B$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'5u21'!$A$1:$N$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">バージョンアップ手順!$A$1:$C$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'5u21'!$4:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,241 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="259">
-  <si>
-    <t>機能分類</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-  </si>
-  <si>
-    <t>リポジトリ</t>
-  </si>
-  <si>
-    <t>トランザクション管理機能</t>
-  </si>
-  <si>
-    <t>データベースアクセス(検索、更新、登録、削除)機能</t>
-  </si>
-  <si>
-    <t>静的データのキャッシュ</t>
-  </si>
-  <si>
-    <t>日付の管理機能</t>
-  </si>
-  <si>
-    <t>メッセージ</t>
-  </si>
-  <si>
-    <t>バリデーションとEntityの生成</t>
-  </si>
-  <si>
-    <t>汎用データフォーマット機能</t>
-  </si>
-  <si>
-    <t>同一スレッド内でのデータ共有(スレッドコンテキスト)</t>
-  </si>
-  <si>
-    <t>FWユーティリティ</t>
-  </si>
-  <si>
-    <t>FW標準ハンドラ</t>
-  </si>
-  <si>
-    <t>共通アーキテクチャ</t>
-  </si>
-  <si>
-    <t>データリーダ</t>
-  </si>
-  <si>
-    <t>国際化機能</t>
-  </si>
-  <si>
-    <t>メッセージング実行制御基盤</t>
-  </si>
-  <si>
-    <t>画面オンライン実行制御基盤</t>
-  </si>
-  <si>
-    <t>バッチ実行制御基盤</t>
-  </si>
-  <si>
-    <t>ファイルダウンロード</t>
-  </si>
-  <si>
-    <t>ファイルアップロード</t>
-  </si>
-  <si>
-    <t>開閉局</t>
-  </si>
-  <si>
-    <t>コード管理</t>
-  </si>
-  <si>
-    <t>日付ユーティリティ</t>
-  </si>
-  <si>
-    <t>暗号化機能</t>
-  </si>
-  <si>
-    <t>排他制御機能</t>
-  </si>
-  <si>
-    <t>採番機能</t>
-  </si>
-  <si>
-    <t>認可</t>
-  </si>
-  <si>
-    <t>画面用排他制御機能</t>
-  </si>
-  <si>
-    <t>カスタムタグ</t>
-  </si>
-  <si>
-    <t>共通コンポーネントで共通使用するユーティリティ</t>
-  </si>
-  <si>
-    <t>画面用共通機能</t>
-  </si>
-  <si>
-    <t>共通ハンドラ</t>
-  </si>
-  <si>
-    <t>画面用共通ハンドラ</t>
-  </si>
-  <si>
-    <t>I/O関連共通機能</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>ワークフロー</t>
-  </si>
-  <si>
-    <t>その他コード不備</t>
-  </si>
-  <si>
-    <t>自動テストフレームワーク</t>
-  </si>
-  <si>
-    <t>HTML構文チェックツール</t>
-  </si>
-  <si>
-    <t>JSP静的解析ツール</t>
-  </si>
-  <si>
-    <t>リクエスト単体テストデータ作成ツール</t>
-  </si>
-  <si>
-    <t>Java静的解析ツール</t>
-  </si>
-  <si>
-    <t>設定ファイル</t>
-  </si>
-  <si>
-    <t>開発ガイド</t>
-  </si>
-  <si>
-    <t>環境構築ガイド</t>
-  </si>
-  <si>
-    <t>チュートリアル用コンテンツ</t>
-  </si>
-  <si>
-    <t>設計標準</t>
-  </si>
-  <si>
-    <t>ドキュメント規約</t>
-  </si>
-  <si>
-    <t>設計書フォーマット</t>
-  </si>
-  <si>
-    <t>コーディング規約</t>
-  </si>
-  <si>
-    <t>業務機能サンプル</t>
-  </si>
-  <si>
-    <t>拡張モジュールサンプル</t>
-  </si>
-  <si>
-    <t>NablarchToolbox</t>
-  </si>
-  <si>
-    <t>画面開発ツール</t>
-  </si>
-  <si>
-    <t>業務画面テンプレート</t>
-  </si>
-  <si>
-    <t>UI部品ウィジェット</t>
-  </si>
-  <si>
-    <t>JavaScript UI部品</t>
-  </si>
-  <si>
-    <t>CSSフレームワーク</t>
-  </si>
-  <si>
-    <t>設計書表示機能</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>工程・WBS・成果物定義</t>
-  </si>
-  <si>
-    <t>ツール統合</t>
-  </si>
-  <si>
-    <t>各種標準追加・見直し</t>
-  </si>
-  <si>
-    <t>CTS（変更管理）</t>
-  </si>
-  <si>
-    <t>ADD（ダッシュボード）</t>
-  </si>
-  <si>
-    <t>Capsule-T</t>
-  </si>
-  <si>
-    <t>画面用Form自動生成機能</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="191">
   <si>
     <t>■Nablarch 5u21 リリースノート</t>
     <phoneticPr fontId="9"/>
@@ -2209,7 +1940,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2713,7 +2444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2723,9 +2454,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2879,9 +2607,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2909,6 +2634,24 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2920,24 +2663,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="37" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3844,369 +3569,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:B71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
@@ -4215,12 +3577,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="28" customWidth="1"/>
     <col min="3" max="3" width="4.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="28" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
@@ -4232,1358 +3594,1358 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" s="5" customFormat="1" ht="19.5">
-      <c r="A1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="D1" s="25"/>
-    </row>
-    <row r="2" spans="1:116" s="6" customFormat="1" ht="19.5">
-      <c r="A2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:116" s="7" customFormat="1" ht="110.25" customHeight="1">
-      <c r="B3" s="27"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="AF3" s="8"/>
-      <c r="DL3" s="9"/>
-    </row>
-    <row r="4" spans="1:116" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A4" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="M4" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:116" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="70"/>
-    </row>
-    <row r="6" spans="1:116" ht="21">
-      <c r="A6" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="20"/>
-    </row>
-    <row r="7" spans="1:116" s="10" customFormat="1" ht="96">
-      <c r="A7" s="37"/>
-      <c r="B7" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="22">
+    <row r="1" spans="1:116" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:116" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:116" s="10" customFormat="1" ht="156">
-      <c r="A8" s="12"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="22">
+      <c r="B2" s="25"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:116" s="6" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="26"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="AF3" s="7"/>
+      <c r="DL3" s="8"/>
+    </row>
+    <row r="4" spans="1:116" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="68"/>
+      <c r="K4" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:116" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="66"/>
+    </row>
+    <row r="6" spans="1:116" ht="21" x14ac:dyDescent="0.15">
+      <c r="A6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:116" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A7" s="36"/>
+      <c r="B7" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:116" s="9" customFormat="1" ht="156" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="21">
         <f>C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:116" s="10" customFormat="1" ht="180">
-      <c r="A9" s="12"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="22">
+      <c r="D8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:116" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="21">
         <f t="shared" ref="C9:C21" si="0">C8+1</f>
         <v>3</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:116" s="10" customFormat="1" ht="165.75" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="22">
+      <c r="D9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:116" s="9" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:116" s="10" customFormat="1" ht="252">
-      <c r="A11" s="12"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="22">
+      <c r="D10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:116" s="9" customFormat="1" ht="252" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="M11" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:116" s="10" customFormat="1" ht="144">
-      <c r="A12" s="12"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="22">
+      <c r="D11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:116" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M12" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:116" s="10" customFormat="1" ht="108">
-      <c r="A13" s="12"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="22">
+      <c r="D12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:116" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:116" s="10" customFormat="1" ht="60">
-      <c r="A14" s="12"/>
-      <c r="B14" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="22">
+      <c r="D13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:116" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:116" s="10" customFormat="1" ht="96">
-      <c r="A15" s="12"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="22">
+      <c r="D14" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:116" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="21">
         <f>C14+1</f>
         <v>9</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:116" s="10" customFormat="1" ht="48">
-      <c r="A16" s="12"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="22">
+      <c r="D15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:116" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="22" t="str">
+      <c r="D16" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="21" t="str">
         <f>"No."&amp;C15&amp;"と同じように、OracleのJDBCドライバにセントラルリポジトリのJDBCドライバを使うようにdependencyの記述を修正しました。"</f>
         <v>No.9と同じように、OracleのJDBCドライバにセントラルリポジトリのJDBCドライバを使うようにdependencyの記述を修正しました。</v>
       </c>
-      <c r="H16" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="10" customFormat="1" ht="84">
-      <c r="A17" s="12"/>
-      <c r="B17" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="22">
+      <c r="H16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="22" t="str">
+      <c r="D17" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="21" t="str">
         <f>"Java 17 でもビルド・実行できるように、使用しているライブラリやMavenプラグインのバージョンを更新しました。
 なお、Java 17で動かす際にはNo."&amp;C14&amp;"の手順を実施する必要があります。"</f>
         <v>Java 17 でもビルド・実行できるように、使用しているライブラリやMavenプラグインのバージョンを更新しました。
 なお、Java 17で動かす際にはNo.8の手順を実施する必要があります。</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="10" customFormat="1" ht="84">
-      <c r="A18" s="12"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="22">
+      <c r="H17" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M18" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="10" customFormat="1" ht="48">
-      <c r="A19" s="12"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="22">
+      <c r="D18" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="10" customFormat="1" ht="88.5" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="22">
+      <c r="D19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="9" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" s="22" t="s">
+      <c r="D20" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" s="22" t="s">
+      <c r="H20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="10" customFormat="1" ht="90" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="22">
+      <c r="N20" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="9" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="22" t="str">
+      <c r="D21" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="21" t="str">
         <f>"ブランクプロジェクトでメッセージをロードする際に設定されるデフォルト言語がOS環境によって変動しないようにNo"&amp; C10 &amp; "で追加した、message-by-property-files.xmlをimportするように変更しました。"</f>
         <v>ブランクプロジェクトでメッセージをロードする際に設定されるデフォルト言語がOS環境によって変動しないようにNo4で追加した、message-by-property-files.xmlをimportするように変更しました。</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="10" customFormat="1" ht="21">
-      <c r="A22" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="20"/>
-    </row>
-    <row r="23" spans="1:14" s="10" customFormat="1" ht="48">
-      <c r="A23" s="12"/>
-      <c r="B23" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="22">
+      <c r="H21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A22" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="19"/>
+    </row>
+    <row r="23" spans="1:14" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="21">
         <f>C21+1</f>
         <v>16</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="22" t="str">
+      <c r="D23" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="21" t="str">
         <f>"Java 17 でもビルド・実行できるように、使用しているMavenプラグインのバージョンを更新しました。
 なお、Java 17で動かす際にはNo."&amp;C14&amp;"の手順を実施する必要があります。"</f>
         <v>Java 17 でもビルド・実行できるように、使用しているMavenプラグインのバージョンを更新しました。
 なお、Java 17で動かす際にはNo.8の手順を実施する必要があります。</v>
       </c>
-      <c r="H23" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M23" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="10" customFormat="1" ht="48">
-      <c r="A24" s="12"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="22">
+      <c r="H23" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="21">
         <f>C23+1</f>
         <v>17</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" s="22" t="str">
+      <c r="D24" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="21" t="str">
         <f>"内容はNo."&amp;C23&amp;"と同じです。"</f>
         <v>内容はNo.16と同じです。</v>
       </c>
-      <c r="H24" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="N24" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="10" customFormat="1" ht="36">
-      <c r="A25" s="12"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="22">
+      <c r="H24" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="21">
         <f>C24+1</f>
         <v>18</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="22" t="str">
+      <c r="D25" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="21" t="str">
         <f>"内容はNo."&amp;C23&amp;"と同じです。"</f>
         <v>内容はNo.16と同じです。</v>
       </c>
-      <c r="H25" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M25" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="N25" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="10" customFormat="1" ht="228">
-      <c r="A26" s="12"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="22">
+      <c r="H25" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="9" customFormat="1" ht="228" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="21">
         <f>C25+1</f>
         <v>19</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" s="22" t="s">
+      <c r="D26" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="L26" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M26" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="N26" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="10" customFormat="1" ht="21">
-      <c r="A27" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="61"/>
-    </row>
-    <row r="28" spans="1:14" s="10" customFormat="1" ht="48">
-      <c r="A28" s="12"/>
-      <c r="B28" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="22">
+      <c r="N26" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A27" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="59"/>
+    </row>
+    <row r="28" spans="1:14" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="21">
         <f>C26+1</f>
         <v>20</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="22" t="str">
+      <c r="D28" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="21" t="str">
         <f>"Java 17 でもビルド・実行できるように、使用しているMavenプラグインとライブラリのバージョンを更新しました。
 なお、Java 17で動かす際にはNo."&amp;C14&amp;"の手順を実施する必要があります。"</f>
         <v>Java 17 でもビルド・実行できるように、使用しているMavenプラグインとライブラリのバージョンを更新しました。
 なお、Java 17で動かす際にはNo.8の手順を実施する必要があります。</v>
       </c>
-      <c r="H28" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J28" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M28" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="10" customFormat="1" ht="21">
-      <c r="A29" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="61"/>
-    </row>
-    <row r="30" spans="1:14" s="10" customFormat="1" ht="246.75" customHeight="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="22">
+      <c r="H28" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A29" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="59"/>
+    </row>
+    <row r="30" spans="1:14" s="9" customFormat="1" ht="246.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="21">
         <f>C28+1</f>
         <v>21</v>
       </c>
-      <c r="D30" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="M30" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="10" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="22">
+      <c r="D30" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="M30" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="9" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="21">
         <f t="shared" ref="C31:C35" si="1">C30+1</f>
         <v>22</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L31" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M31" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="10" customFormat="1" ht="72">
-      <c r="A32" s="12"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="22">
+      <c r="D31" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="N31" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="21">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M32" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="N32" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="10" customFormat="1" ht="152.25" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="22">
+      <c r="D32" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="9" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="21">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="22" t="s">
+      <c r="D33" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="L33" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M33" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="N33" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="10" customFormat="1" ht="114.75" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="22">
+      <c r="N33" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="9" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="21">
         <f>C33+1</f>
         <v>25</v>
       </c>
-      <c r="D34" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M34" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="N34" s="22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="10" customFormat="1" ht="114.75" customHeight="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="22">
+      <c r="D34" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="9" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="61"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="21">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M35" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="N35" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="10" customFormat="1" ht="72">
-      <c r="A36" s="64"/>
-      <c r="B36" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="22">
+      <c r="D35" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="N35" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A36" s="62"/>
+      <c r="B36" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="21">
         <f>C35+1</f>
         <v>27</v>
       </c>
-      <c r="D36" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="L36" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M36" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="N36" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="47"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75">
-      <c r="A38" s="48"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="D36" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="46"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A38" s="47"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B43" s="1"/>
     </row>
   </sheetData>
@@ -5593,6 +4955,11 @@
     <sortCondition ref="E7:E13"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="G4:G5"/>
@@ -5600,11 +4967,6 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <conditionalFormatting sqref="G22">
@@ -5663,105 +5025,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="3.5" style="15" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="3.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17">
+      <c r="C5" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16">
         <f>$B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
@@ -5773,274 +5135,275 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22922139-F699-43E1-9506-6F3ABFECB37B}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="49" customWidth="1"/>
-    <col min="3" max="3" width="77.5" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" style="49" customWidth="1"/>
-    <col min="5" max="5" width="77.5" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="49"/>
+    <col min="1" max="1" width="2.75" style="48" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="48" customWidth="1"/>
+    <col min="3" max="3" width="77.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="48" customWidth="1"/>
+    <col min="5" max="5" width="77.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="49" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="C4" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="C7" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="C10" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="C16" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="C17" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="C18" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="C19" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="C20" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="C21" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="C22" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="C23" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="C24" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="C25" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="C26" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="C27" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="C28" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="E28" s="51" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="C29" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="C30" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="C31" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="49" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="13.5">
-      <c r="B33" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C4" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C5" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C9" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C10" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C11" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C12" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C13" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C14" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C15" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C16" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C17" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C19" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C20" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C22" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C23" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C26" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C27" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C28" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C29" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C30" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C31" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6051,255 +5414,6 @@
     <hyperlink ref="B33" r:id="rId1" location="spotbugs-maven-plugin%E3%82%92%E7%B5%84%E3%81%BF%E8%BE%BC%E3%82%80" xr:uid="{57A51671-075B-4954-B9B4-F9478CB4FAA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004FB777E25BEAEA41AA8B3499B0554451" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7a4ba5d73630d8a49f59b96987be389a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d008ebc-df4f-45f1-825a-8a8202e958a5" xmlns:ns3="86b2f916-4c25-4caf-b602-cb3f88f7f404" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97039de45f6485f9db82591caa8692c7" ns2:_="" ns3:_="">
-    <xsd:import namespace="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
-    <xsd:import namespace="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1d008ebc-df4f-45f1-825a-8a8202e958a5" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="86b2f916-4c25-4caf-b602-cb3f88f7f404" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A919464-BD08-4966-B05C-B6FFCD5F73ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F997B6E2-66E3-4F87-A84B-8F04CFCA4B7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
-    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53EB8DF3-05AB-4C43-A7CC-F8C44257EDD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d008ebc-df4f-45f1-825a-8a8202e958a5"/>
-    <ds:schemaRef ds:uri="86b2f916-4c25-4caf-b602-cb3f88f7f404"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>